--- a/tool/excel/Item.xlsx
+++ b/tool/excel/Item.xlsx
@@ -12,25 +12,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
-    <sheet name="ITEM" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Test" sheetId="4" r:id="rId1"/>
+    <sheet name="ITEM" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
   <si>
     <t>define</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
     <t>info</t>
   </si>
   <si>
@@ -82,107 +76,1408 @@
     <t>消灭108个敌人</t>
   </si>
   <si>
-    <t>成就线</t>
-  </si>
-  <si>
-    <t>定长</t>
-  </si>
-  <si>
-    <t>不定长</t>
-  </si>
-  <si>
-    <t>不定长2</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>tbsIdCount</t>
+    <t>byte+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,6</t>
+  </si>
+  <si>
+    <t>2,4,7</t>
+  </si>
+  <si>
+    <t>3,6,10</t>
+  </si>
+  <si>
+    <t>1,3,7</t>
+  </si>
+  <si>
+    <t>2,4,8</t>
+  </si>
+  <si>
+    <t>3,6,11,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>byte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_list</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aa</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num~key</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum_key1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum_key2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yte</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>_byte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ong</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte_arr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int+</t>
-  </si>
-  <si>
-    <t>tbsKeyValue+</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
-    <t>1,100</t>
-  </si>
-  <si>
-    <t>-1,2,-3</t>
-  </si>
-  <si>
-    <t>1,1;2,2</t>
-  </si>
-  <si>
-    <t>消灭1000个敌人</t>
-  </si>
-  <si>
-    <t>1,1000</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>1,1;2,2;3,3</t>
-  </si>
-  <si>
-    <t>byte+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,6</t>
-  </si>
-  <si>
-    <t>2,4,7</t>
-  </si>
-  <si>
-    <t>3,6,10</t>
-  </si>
-  <si>
-    <t>1,3,7</t>
-  </si>
-  <si>
-    <t>2,4,8</t>
-  </si>
-  <si>
-    <t>3,6,11,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_arr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>long_arr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_arr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>_long</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>_float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>1,2,8</t>
+  </si>
+  <si>
+    <t>1,2,9</t>
+  </si>
+  <si>
+    <t>1,2,10</t>
+  </si>
+  <si>
+    <t>1,2,11</t>
+  </si>
+  <si>
+    <t>1,2,12</t>
+  </si>
+  <si>
+    <t>1,2,13</t>
+  </si>
+  <si>
+    <t>1,2,14</t>
+  </si>
+  <si>
+    <t>1,2,15</t>
+  </si>
+  <si>
+    <t>1,2,16</t>
+  </si>
+  <si>
+    <t>1,2,17</t>
+  </si>
+  <si>
+    <t>1,2,18</t>
+  </si>
+  <si>
+    <t>1,2,19</t>
+  </si>
+  <si>
+    <t>1,2,20</t>
+  </si>
+  <si>
+    <t>1,2,21</t>
+  </si>
+  <si>
+    <t>_byte_copy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string_emum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum~key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ey19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>_string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>_int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -228,10 +1523,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -292,7 +1600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +1635,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,10 +1844,892 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="4">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="4">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4">
+        <v>13</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="4">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <v>14</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="4">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="4">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="4">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="4">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4">
+        <v>18</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="4">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="4">
+        <v>19</v>
+      </c>
+      <c r="G23" s="6">
+        <v>19</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -551,299 +2741,282 @@
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>